--- a/Output/Serpro_2186753.xlsx
+++ b/Output/Serpro_2186753.xlsx
@@ -413,9 +413,9 @@
     </from>
     <to>
       <col>3</col>
-      <colOff>322560</colOff>
+      <colOff>322200</colOff>
       <row>2</row>
-      <rowOff>137160</rowOff>
+      <rowOff>136800</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -424,7 +424,7 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" l="57" t="0" r="70181" b="0"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" l="57" t="0" r="70190" b="0"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -432,7 +432,7 @@
       <spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="3345480" cy="1280160"/>
+          <a:ext cx="3345120" cy="1279800"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -454,9 +454,9 @@
     </from>
     <to>
       <col>13</col>
-      <colOff>47520</colOff>
+      <colOff>47160</colOff>
       <row>2</row>
-      <rowOff>158760</rowOff>
+      <rowOff>158400</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -465,15 +465,15 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" l="54840" t="0" r="57" b="0"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" l="54847" t="0" r="57" b="0"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="15898320" y="21600"/>
-          <a:ext cx="5062680" cy="1280160"/>
+          <a:off x="15896880" y="21600"/>
+          <a:ext cx="5061960" cy="1279800"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -778,21 +778,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P671"/>
+  <dimension ref="A1:M671"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="14.28" customWidth="1" style="18" min="1" max="3"/>
     <col width="24" customWidth="1" style="18" min="4" max="4"/>
     <col width="57.57" customWidth="1" style="18" min="5" max="5"/>
     <col width="14.28" customWidth="1" style="18" min="6" max="6"/>
-    <col width="43.14" customWidth="1" style="18" min="7" max="7"/>
+    <col width="43.13" customWidth="1" style="18" min="7" max="7"/>
     <col width="14.28" customWidth="1" style="18" min="8" max="9"/>
     <col width="13.7" customWidth="1" style="18" min="10" max="11"/>
     <col width="15.29" customWidth="1" style="18" min="12" max="12"/>
@@ -842,26 +842,24 @@
     <row r="4" ht="30" customHeight="1" s="19">
       <c r="A4" s="26" t="inlineStr">
         <is>
-          <t>Protocolo: 144    118690
-Name: Protocolo Glosa, dtype: int64</t>
+          <t>Protocolo: 118690</t>
         </is>
       </c>
       <c r="B4" s="27" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>Lote: 144    2186753
-Name: Fatura, dtype: int64</t>
+          <t>Lote: 2186753</t>
         </is>
       </c>
       <c r="D4" s="27" t="n"/>
       <c r="E4" s="29" t="inlineStr">
         <is>
-          <t>Valor Informado: 349.15</t>
+          <t>Valor Informado: R$349,15</t>
         </is>
       </c>
       <c r="F4" s="28" t="inlineStr">
         <is>
-          <t>Valor Liberado: 310.90999999999997</t>
+          <t>Valor Liberado: R$310,91</t>
         </is>
       </c>
       <c r="G4" s="27" t="n"/>
@@ -874,13 +872,13 @@
       <c r="J4" s="27" t="n"/>
       <c r="K4" s="28" t="inlineStr">
         <is>
-          <t>Valor Glosa: -38.24</t>
+          <t>Valor Glosa: R$-38,24</t>
         </is>
       </c>
       <c r="L4" s="27" t="n"/>
       <c r="M4" s="30" t="inlineStr">
         <is>
-          <t>Valor Recurso: 38.24</t>
+          <t>Valor Recurso: R$38,24</t>
         </is>
       </c>
     </row>
@@ -956,53 +954,44 @@
     </row>
     <row r="6" ht="15" customHeight="1" s="19">
       <c r="A6" s="35" t="n">
-        <v>2186753</v>
+        <v>27986739</v>
       </c>
       <c r="B6" s="35" t="n">
-        <v>118690</v>
-      </c>
-      <c r="C6" s="35" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="D6" s="35" t="n">
-        <v>27986739</v>
-      </c>
-      <c r="E6" s="35" t="n">
         <v>55607098</v>
       </c>
-      <c r="F6" s="35" t="inlineStr"/>
-      <c r="G6" s="35" t="n">
+      <c r="C6" s="35" t="inlineStr"/>
+      <c r="D6" s="35" t="n">
         <v>10210971860001</v>
       </c>
-      <c r="H6" s="35" t="inlineStr">
+      <c r="E6" s="35" t="inlineStr">
         <is>
           <t>ROSANGELA DINIZ CAMARA</t>
         </is>
       </c>
-      <c r="I6" s="35" t="n">
+      <c r="F6" s="35" t="n">
         <v>40901360</v>
       </c>
-      <c r="J6" s="36" t="inlineStr">
+      <c r="G6" s="35" t="inlineStr">
         <is>
           <t>Doppler Colorido de Vasos Cervicais Arteriais Bilateral (carótidas e Vertebrais)</t>
         </is>
       </c>
-      <c r="K6" s="36" t="n">
+      <c r="H6" s="35" t="n">
         <v>349.15</v>
       </c>
-      <c r="L6" s="36" t="n">
+      <c r="I6" s="35" t="n">
         <v>382</v>
       </c>
-      <c r="M6" s="37" t="n">
+      <c r="J6" s="36" t="n">
         <v>-38.24</v>
       </c>
-      <c r="N6" t="n">
+      <c r="K6" s="36" t="n">
         <v>1714</v>
       </c>
-      <c r="O6" t="n">
+      <c r="L6" s="36" t="n">
         <v>38.24</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="M6" s="37" t="inlineStr">
         <is>
           <t>Procedimento principal cobrado conforme reajuste vigente de 01/12/22. Cálculo:  204,16 + 127,45(UCO) + 17,54 (Filme) = R$ 349,15. Rever.</t>
         </is>
